--- a/hardware/caravel_breakout_QFN/caravel_breakout_QFN.xlsx
+++ b/hardware/caravel_breakout_QFN/caravel_breakout_QFN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffdi/Projects/caravel_board/hardware/caravel_breakout_QFN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{115F1394-9398-6D4B-9D1E-F4EFF03410DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCB8FB3-D6F1-414B-980A-60E85E1E76D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1820" windowWidth="27640" windowHeight="16940" xr2:uid="{E4771B48-AE2E-4A44-80DC-EB3187A374CD}"/>
+    <workbookView xWindow="2340" yWindow="1840" windowWidth="27640" windowHeight="16940" xr2:uid="{E4771B48-AE2E-4A44-80DC-EB3187A374CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{4A4E9E04-9FDB-FF47-92E5-AD94D47F94F4}" name="caravel_breakout_QFN" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jeffdi/Projects/caravel_board/hardware/caravel_breakout_QFN/caravel_breakout_QFN.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/jeffdi/Projects/caravel_board/hardware/caravel_breakout_QFN/caravel_breakout_QFN.csv" tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -100,9 +100,6 @@
     <t>Customer provided</t>
   </si>
   <si>
-    <t>CC0805KRX7R9BB104</t>
-  </si>
-  <si>
     <t>DK</t>
   </si>
   <si>
@@ -113,13 +110,16 @@
   </si>
   <si>
     <t>DNI</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +134,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE01E5A"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8E86F2-C433-4E4B-B2C6-3594FC35CD82}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,7 +497,7 @@
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,10 +515,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
@@ -531,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -551,10 +558,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,6 +583,9 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
